--- a/www/IndicatorsPerCountry/Greece_IncomeInequality_TerritorialRef_1946_2012_CCode_300.xlsx
+++ b/www/IndicatorsPerCountry/Greece_IncomeInequality_TerritorialRef_1946_2012_CCode_300.xlsx
@@ -90,13 +90,13 @@
     <t>Moatsos, Michalis, Jan Luiten van Zanden, Joerg Baten, et al. (2015). Income Inequality. http://hdl.handle.net/10622/6OHMDS, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_6OHMDS.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_6OHMDS.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_6OHMDS.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_6OHMDS.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_6OHMDS.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_6OHMDS.bib</t>
   </si>
 </sst>
 </file>
